--- a/NLP/results/Alice Johnson__scoresheet.xlsx
+++ b/NLP/results/Alice Johnson__scoresheet.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>0/3</t>
+          <t>0/9</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-11 15:39:06</t>
+          <t>2025-11-14 18:15:04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -604,41 +604,149 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>-3.0%</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Needs improvement. Review key concepts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>-7.8%</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>Needs improvement. Review key concepts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>DETAILED ANSWERS</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Q1: Q1</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Model Answer:</t>
         </is>
       </c>
-      <c r="B13" s="9" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>jk</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>Student Answer:</t>
         </is>
       </c>
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>The cell membrane controls what enters and exits the cell</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Q2: Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Model Answer:</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="inlineStr">
+        <is>
+          <t>hc</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>Student Answer:</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="inlineStr">
+        <is>
+          <t>Mitochondria produces energy through cellular respiration</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Q3: Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>Model Answer:</t>
+        </is>
+      </c>
+      <c r="B23" s="9" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>Student Answer:</t>
+        </is>
+      </c>
+      <c r="B24" s="9" t="inlineStr">
+        <is>
+          <t>DNA stores genetic information in the nucleus</t>
         </is>
       </c>
     </row>

--- a/NLP/results/Alice Johnson__scoresheet.xlsx
+++ b/NLP/results/Alice Johnson__scoresheet.xlsx
@@ -38,7 +38,7 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FF0000"/>
+      <color rgb="0000B050"/>
       <sz val="12"/>
     </font>
     <font>
@@ -65,8 +65,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>0/9</t>
+          <t>3/3</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-14 18:15:04</t>
+          <t>2025-11-18 12:29:46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -588,165 +588,57 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>80.4%</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>Needs improvement. Review key concepts.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>-3.0%</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Needs improvement. Review key concepts.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>-7.8%</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>Needs improvement. Review key concepts.</t>
+          <t>Excellent! All key concepts covered.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>DETAILED ANSWERS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Q1: Q1</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>DETAILED ANSWERS</t>
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>Model Answer:</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>The cell membrane is a selectively permeable barrier that regulates the passage of substances into and out of the cell, controlling what enters and exits to maintain cellular homeostasis.</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Q1: Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Model Answer:</t>
-        </is>
-      </c>
-      <c r="B15" s="9" t="inlineStr">
-        <is>
-          <t>jk</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>Student Answer:</t>
         </is>
       </c>
-      <c r="B16" s="9" t="inlineStr">
+      <c r="B14" s="9" t="inlineStr">
         <is>
           <t>The cell membrane controls what enters and exits the cell</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Q2: Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Model Answer:</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="inlineStr">
-        <is>
-          <t>hc</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>Student Answer:</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="inlineStr">
-        <is>
-          <t>Mitochondria produces energy through cellular respiration</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Q3: Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>Model Answer:</t>
-        </is>
-      </c>
-      <c r="B23" s="9" t="inlineStr">
-        <is>
-          <t>ui</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="inlineStr">
-        <is>
-          <t>Student Answer:</t>
-        </is>
-      </c>
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>DNA stores genetic information in the nucleus</t>
         </is>
       </c>
     </row>
